--- a/server/routes/fileExcel/Template.xlsx
+++ b/server/routes/fileExcel/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\japee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE618D9F-EE0D-4C88-ABC3-B134B43CF48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3424A5-1E59-45A8-92BA-8C624401D6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,6 +616,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4309,6 +4312,6 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="29" fitToHeight="0" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>